--- a/Vanguard EU/Vanguard-Fondsen-KostenBepaling.xlsx
+++ b/Vanguard EU/Vanguard-Fondsen-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsen/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard EU/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard EU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{7B131C08-B69E-4820-8C4F-428D00071D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1CB738C-E392-419C-84C2-4BA8EFF99380}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{7B131C08-B69E-4820-8C4F-428D00071D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E33A064-1193-4535-99BE-0AF8DE419D8E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="1980" windowWidth="23730" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="15" r:id="rId1"/>
@@ -797,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C693AA-DB05-4484-89F4-1CEE925F543D}">
-  <dimension ref="B2:N45"/>
+  <dimension ref="B2:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -808,11 +808,12 @@
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>50</v>
       </c>
@@ -823,13 +824,15 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2014</v>
       </c>
@@ -848,14 +851,20 @@
       <c r="H4" s="1">
         <v>2019</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -877,12 +886,14 @@
       <c r="H5" s="33">
         <v>11490325356</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="L5" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="1"/>
+      <c r="N5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -905,15 +916,17 @@
         <f>(0.15%*(295/365))+(0.11%*(70/365))</f>
         <v>1.4232876712328769E-3</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="5">
         <f>AVERAGE(D6:H6)</f>
         <v>1.4846575342465755E-3</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -938,21 +951,25 @@
         <f t="shared" si="0"/>
         <v>10726274918.5</v>
       </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="5"/>
-      <c r="L8" s="43" t="s">
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="5"/>
+      <c r="N8" s="43" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -974,9 +991,11 @@
       <c r="H9" s="33">
         <v>942008</v>
       </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -996,9 +1015,11 @@
         <v>8200</v>
       </c>
       <c r="H10" s="23"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -1026,9 +1047,11 @@
         <f t="shared" si="1"/>
         <v>942008</v>
       </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -1053,21 +1076,25 @@
         <f t="shared" si="2"/>
         <v>8.7822473986312263E-5</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="4">
         <f>AVERAGE(D12:H12)</f>
         <v>8.1515130793771763E-5</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -1089,9 +1116,15 @@
       <c r="H14" s="34">
         <v>281441122</v>
       </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I14" s="34">
+        <v>217920263</v>
+      </c>
+      <c r="J14" s="34">
+        <v>254405660</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -1113,10 +1146,16 @@
       <c r="H15" s="34">
         <v>51221448</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="N15" s="42"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I15" s="34">
+        <v>44191807</v>
+      </c>
+      <c r="J15" s="34">
+        <v>45268129</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="P15" s="42"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -1125,7 +1164,7 @@
         <v>0.17050073634158444</v>
       </c>
       <c r="D16" s="27">
-        <f t="shared" ref="D16:H16" si="3">D15/D14</f>
+        <f t="shared" ref="D16:J16" si="3">D15/D14</f>
         <v>0.19602906523019775</v>
       </c>
       <c r="E16" s="27">
@@ -1144,17 +1183,25 @@
         <f t="shared" si="3"/>
         <v>0.18199702884925253</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="27">
+        <f t="shared" si="3"/>
+        <v>0.20278888429939165</v>
+      </c>
+      <c r="J16" s="27">
+        <f>J15/J14</f>
+        <v>0.17793679983377728</v>
+      </c>
+      <c r="K16" s="5">
         <f>AVERAGE(D16:H16)</f>
         <v>0.18526885263409712</v>
       </c>
-      <c r="K16" s="5">
+      <c r="M16" s="5">
         <f>AVERAGE(C16:H16)</f>
         <v>0.18280749991867837</v>
       </c>
-      <c r="N16" s="42"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P16" s="42"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>28</v>
       </c>
@@ -1179,12 +1226,14 @@
         <f t="shared" si="4"/>
         <v>4.7753249277301749E-3</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="5">
         <f>AVERAGE(D17:H17)</f>
         <v>4.742164426062E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -1209,22 +1258,26 @@
         <f t="shared" si="5"/>
         <v>2.6238477396713762E-2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="4">
         <f>AVERAGE(D18:H18)</f>
         <v>2.5602565703711565E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="5"/>
-      <c r="N19" s="42"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="5"/>
+      <c r="P19" s="42"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>29</v>
       </c>
@@ -1246,8 +1299,10 @@
       <c r="H20" s="33">
         <v>85082</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -1265,9 +1320,11 @@
       <c r="H21" s="33">
         <v>212</v>
       </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -1292,21 +1349,25 @@
         <f t="shared" si="6"/>
         <v>7.9518752454209719E-6</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="4">
         <f>AVERAGE(D22:H22)</f>
         <v>4.9522402758022032E-6</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -1326,9 +1387,11 @@
       <c r="H24" s="23">
         <v>134513582</v>
       </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>8</v>
       </c>
@@ -1353,18 +1416,22 @@
         <f t="shared" si="7"/>
         <v>1.1706681737237311E-2</v>
       </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>32</v>
       </c>
@@ -1386,9 +1453,11 @@
       <c r="H27" s="33">
         <v>2149634</v>
       </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -1413,21 +1482,25 @@
         <f t="shared" si="8"/>
         <v>2.00408251357836E-4</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="4">
         <f>AVERAGE(D28:H28)</f>
         <v>2.432737302829785E-4</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>34</v>
       </c>
@@ -1449,9 +1522,11 @@
       <c r="H30" s="33">
         <v>652375</v>
       </c>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>35</v>
       </c>
@@ -1476,21 +1551,25 @@
         <f t="shared" si="9"/>
         <v>6.0820275907232706E-5</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="41">
         <f>AVERAGE(D31:H31)</f>
         <v>7.2835369893269636E-5</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>36</v>
       </c>
@@ -1508,26 +1587,30 @@
       <c r="H33" s="26">
         <v>0</v>
       </c>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I35" s="28"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="28"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="5">
-        <f>I6+I17-I28+I31</f>
+        <f>K6+K17-K28+K31</f>
         <v>6.0563835999188666E-3</v>
       </c>
       <c r="D36" t="s">
@@ -1538,8 +1621,10 @@
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>38</v>
       </c>
@@ -1551,7 +1636,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>39</v>
       </c>
@@ -1560,16 +1645,16 @@
         <v>7.070938410874434E-4</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="32">
-        <f>0.11%+I17-H28+H31</f>
+        <f>0.11%+K17-H28+H31</f>
         <v>5.7025764506113972E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1578,11 +1663,11 @@
         <v>9.604120245493967E-4</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="32"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>42</v>
       </c>
@@ -1591,7 +1676,7 @@
         <v>-3.5380714930746942E-4</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
@@ -1605,14 +1690,18 @@
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
       <c r="F45" s="31"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
